--- a/data/trans_dic/P16A02-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2049169798284988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3005321974477088</v>
+        <v>0.3005321974477087</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2651121657950524</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1357703382711793</v>
+        <v>0.1372667634378082</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1754658911242306</v>
+        <v>0.1760335834904994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1817471798053235</v>
+        <v>0.1796095998389531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2574526186809692</v>
+        <v>0.2550495758305856</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2368422698879644</v>
+        <v>0.2364892578791705</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3284916992087756</v>
+        <v>0.327842432066788</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3119191101724229</v>
+        <v>0.3091358058386943</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4324377670650518</v>
+        <v>0.4340351145212107</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2046378346750554</v>
+        <v>0.2057517259560064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2626507698751697</v>
+        <v>0.262318961816742</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2552446744174756</v>
+        <v>0.255587684043495</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3670526881033217</v>
+        <v>0.3693939195716245</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1979139275999646</v>
+        <v>0.1983673491110161</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2268674293526768</v>
+        <v>0.2272857900849714</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2290462095204185</v>
+        <v>0.2327809404302049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3436235659260669</v>
+        <v>0.3415869654403649</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2961338884643989</v>
+        <v>0.2942963310111438</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3894279000918984</v>
+        <v>0.3833856587826522</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3635502117723324</v>
+        <v>0.3648465989961908</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5066847846760039</v>
+        <v>0.5085663319770691</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2489437798647542</v>
+        <v>0.249258298196067</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3014576712606737</v>
+        <v>0.3006469645116775</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2953849691940271</v>
+        <v>0.2938103984300287</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4205840264990135</v>
+        <v>0.4255773640808462</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1207164515004528</v>
+        <v>0.1206664709980991</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1375559807413725</v>
+        <v>0.1395119016222463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1539923200501244</v>
+        <v>0.1583214522515101</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2115869868341891</v>
+        <v>0.2118755016681614</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2162962475820741</v>
+        <v>0.2148381516506693</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3353956382288151</v>
+        <v>0.3398530892418064</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2826525499139887</v>
+        <v>0.281739078907183</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3832739841209487</v>
+        <v>0.3834606641966919</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1720070245677693</v>
+        <v>0.1741303278820576</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2512368180027811</v>
+        <v>0.2503642986549509</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2326654812706</v>
+        <v>0.2305717464202722</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3107692697529085</v>
+        <v>0.3092464648033796</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1607317193736975</v>
+        <v>0.1613697259229101</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1848865593605577</v>
+        <v>0.1874434709004262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2065031953378146</v>
+        <v>0.2086990742618831</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680788786655579</v>
+        <v>0.2702043689245268</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2686586015714797</v>
+        <v>0.2688222087688764</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3977817998575399</v>
+        <v>0.3989846511854184</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3431930829285438</v>
+        <v>0.3437297304381667</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4340073041377578</v>
+        <v>0.434267232668395</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2075669312009664</v>
+        <v>0.2061481850554107</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2904749611095439</v>
+        <v>0.2935809557395179</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2724177417846024</v>
+        <v>0.2716611657402778</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3499324216880799</v>
+        <v>0.3501383575061314</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2950817647928788</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3637149195616083</v>
+        <v>0.3637149195616084</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.167033019449345</v>
@@ -969,7 +969,7 @@
         <v>0.2326461536336024</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2899726244539349</v>
+        <v>0.289972624453935</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1086264385714087</v>
+        <v>0.113990101139337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1583630547078721</v>
+        <v>0.1591909567101032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1482901582757004</v>
+        <v>0.145475690818308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1894165321977897</v>
+        <v>0.1896557142694416</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1848682919536183</v>
+        <v>0.1821336043499671</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2685476805865998</v>
+        <v>0.2691301737689389</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2617160616186872</v>
+        <v>0.2607945074292357</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3380131383107073</v>
+        <v>0.3388795716597694</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1500887374376181</v>
+        <v>0.1527805875506971</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2220375485623986</v>
+        <v>0.2223290127037599</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2110135407660811</v>
+        <v>0.2132547042866031</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2702620415429834</v>
+        <v>0.2700019969780434</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1518244757119118</v>
+        <v>0.1539894192202962</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2135445643180318</v>
+        <v>0.2115571094580709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2023688821520453</v>
+        <v>0.2034029383628517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2447803385457944</v>
+        <v>0.2455860558377094</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2363776656342536</v>
+        <v>0.2324760264427538</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3326573427523765</v>
+        <v>0.3300398580689263</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3297743446492402</v>
+        <v>0.3329767451320431</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3880595868993754</v>
+        <v>0.3894772327923939</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1838589595152321</v>
+        <v>0.1845980584156397</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2643577051905641</v>
+        <v>0.2649968907406517</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.254825159836121</v>
+        <v>0.256339892224689</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3106744441377009</v>
+        <v>0.3073395817835456</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09256959504101793</v>
+        <v>0.09178900778323322</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1206761830637245</v>
+        <v>0.1214267566411704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1560029980207872</v>
+        <v>0.153682267506666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2009049029318142</v>
+        <v>0.2059683225226897</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1927483449951894</v>
+        <v>0.1925016219625501</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2273321725302863</v>
+        <v>0.229764051204931</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2236337771845197</v>
+        <v>0.2250950225995613</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3155146691696449</v>
+        <v>0.3134303653633103</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1412837917651882</v>
+        <v>0.1454950540921402</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1831179036993507</v>
+        <v>0.1815412282525836</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1976956950295616</v>
+        <v>0.2008761476592344</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2655696473505192</v>
+        <v>0.262392447512645</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1536156129411624</v>
+        <v>0.1506905822971651</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1901787173823917</v>
+        <v>0.1887195977440512</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2316335293780518</v>
+        <v>0.2263360078805279</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.262221787972288</v>
+        <v>0.2658353754429517</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2871825531560159</v>
+        <v>0.2826086732778498</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3166966440887813</v>
+        <v>0.3205694982243001</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3034368373472782</v>
+        <v>0.3102834113994953</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3685133788671617</v>
+        <v>0.3692606674171006</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1970095759019888</v>
+        <v>0.1984445431573655</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2361035307238117</v>
+        <v>0.23650550040031</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2554952811548221</v>
+        <v>0.2551953393213879</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3062591164288839</v>
+        <v>0.3065029355698853</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3109218766137398</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3896608198979414</v>
+        <v>0.3896608198979413</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1884986167268513</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1264043600849636</v>
+        <v>0.128127902037526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1657940373021864</v>
+        <v>0.1660112710744688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1752531325835089</v>
+        <v>0.176849861065147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2258502374533503</v>
+        <v>0.2238863635176495</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2228104965004698</v>
+        <v>0.2233868890439049</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3195560590015787</v>
+        <v>0.318115774689967</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2953087745848592</v>
+        <v>0.2957081528826112</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3758899086207815</v>
+        <v>0.3772514291723682</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1788381866956655</v>
+        <v>0.1785909983393265</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2476250295858274</v>
+        <v>0.2473344700098129</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2408312320658378</v>
+        <v>0.2412237076789682</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3063008954173989</v>
+        <v>0.3068075831676401</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1516797871422188</v>
+        <v>0.1527977200309608</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1937381062451309</v>
+        <v>0.192597592697522</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2028514150868463</v>
+        <v>0.2049178674214007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2553567557648134</v>
+        <v>0.2552396677691808</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2519001525039595</v>
+        <v>0.2518856853215965</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3514087456293784</v>
+        <v>0.3522415318350797</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3268321792557158</v>
+        <v>0.3266474797170557</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.404420378545744</v>
+        <v>0.4050924878823347</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1980489925534786</v>
+        <v>0.1982916389637255</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2700406870237265</v>
+        <v>0.2699170412548176</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2629871302692041</v>
+        <v>0.2612746532004575</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3267537833584145</v>
+        <v>0.3275561771631341</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>79309</v>
+        <v>80183</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>182802</v>
+        <v>183393</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205010</v>
+        <v>202599</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>128402</v>
+        <v>127203</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>218447</v>
+        <v>218122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>367123</v>
+        <v>366397</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>392881</v>
+        <v>389375</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>269660</v>
+        <v>270656</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>308282</v>
+        <v>309960</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>567170</v>
+        <v>566454</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>609411</v>
+        <v>610230</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>411951</v>
+        <v>414578</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>115610</v>
+        <v>115875</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>236352</v>
+        <v>236788</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>258363</v>
+        <v>262576</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>171378</v>
+        <v>170363</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>273134</v>
+        <v>271439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>435225</v>
+        <v>428472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>457914</v>
+        <v>459547</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>315958</v>
+        <v>317132</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>375027</v>
+        <v>375501</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>650970</v>
+        <v>649220</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>705249</v>
+        <v>701489</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>472030</v>
+        <v>477634</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>130120</v>
+        <v>130066</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>134052</v>
+        <v>135958</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>139952</v>
+        <v>143886</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>203152</v>
+        <v>203430</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>228742</v>
+        <v>227200</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>366311</v>
+        <v>371180</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>284483</v>
+        <v>283563</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>427445</v>
+        <v>427653</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>367309</v>
+        <v>371843</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>519233</v>
+        <v>517430</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>445624</v>
+        <v>441614</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>644965</v>
+        <v>641805</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>173252</v>
+        <v>173939</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>180177</v>
+        <v>182669</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>187675</v>
+        <v>189671</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>257392</v>
+        <v>259433</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>284117</v>
+        <v>284290</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>434448</v>
+        <v>435762</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>345415</v>
+        <v>345955</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>484025</v>
+        <v>484315</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>443245</v>
+        <v>440215</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>600327</v>
+        <v>606746</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>521762</v>
+        <v>520313</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>726244</v>
+        <v>726671</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>121724</v>
+        <v>127735</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>140022</v>
+        <v>140754</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>122155</v>
+        <v>119837</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>198220</v>
+        <v>198471</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>183748</v>
+        <v>181030</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>234915</v>
+        <v>235425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>201799</v>
+        <v>201088</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>354117</v>
+        <v>355024</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>317365</v>
+        <v>323057</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>390552</v>
+        <v>391065</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>336528</v>
+        <v>340102</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>565961</v>
+        <v>565417</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>170131</v>
+        <v>172557</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>188813</v>
+        <v>187056</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>166703</v>
+        <v>167555</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>256157</v>
+        <v>257001</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>234945</v>
+        <v>231067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>290996</v>
+        <v>288706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>254275</v>
+        <v>256745</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>406548</v>
+        <v>408033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>388773</v>
+        <v>390336</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>464991</v>
+        <v>466115</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>406400</v>
+        <v>408815</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>650590</v>
+        <v>643606</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41397</v>
+        <v>41048</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>60703</v>
+        <v>61080</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79047</v>
+        <v>77871</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>196069</v>
+        <v>201010</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>65758</v>
+        <v>65673</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>102497</v>
+        <v>103593</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>109513</v>
+        <v>110229</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>286690</v>
+        <v>284796</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111382</v>
+        <v>114702</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>174675</v>
+        <v>173171</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>196984</v>
+        <v>200153</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>500485</v>
+        <v>494497</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68697</v>
+        <v>67389</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>95664</v>
+        <v>94930</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>117369</v>
+        <v>114685</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>255910</v>
+        <v>259436</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>97975</v>
+        <v>96414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142788</v>
+        <v>144535</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>148592</v>
+        <v>151945</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>334847</v>
+        <v>335526</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>155314</v>
+        <v>156445</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>225217</v>
+        <v>225600</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>254575</v>
+        <v>254276</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>577167</v>
+        <v>577627</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>408262</v>
+        <v>413829</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>564288</v>
+        <v>565027</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>590127</v>
+        <v>595503</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>786249</v>
+        <v>779412</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>738610</v>
+        <v>740521</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1129761</v>
+        <v>1124669</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1041493</v>
+        <v>1042901</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1388955</v>
+        <v>1393986</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1170457</v>
+        <v>1168839</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1718258</v>
+        <v>1716242</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1660309</v>
+        <v>1663014</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2198136</v>
+        <v>2201772</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>489897</v>
+        <v>493508</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>659397</v>
+        <v>655515</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>683058</v>
+        <v>690016</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>888969</v>
+        <v>888562</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>835041</v>
+        <v>834993</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1242373</v>
+        <v>1245317</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1152669</v>
+        <v>1152018</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1494378</v>
+        <v>1496861</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1296187</v>
+        <v>1297775</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1873800</v>
+        <v>1872942</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1813053</v>
+        <v>1801247</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2344914</v>
+        <v>2350673</v>
       </c>
     </row>
     <row r="24">
